--- a/article/BuildInsider_2/Docker構成.xlsx
+++ b/article/BuildInsider_2/Docker構成.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\BuildInsider%20Docker\article\BuildInsider_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\BuildInsider%20Docker\article\BuildInsider_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="62">
   <si>
     <t>クライアントPC</t>
   </si>
@@ -257,6 +257,35 @@
     <t>仮想マシン: Swarm Agent2</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Cassandraクラスタ　Swarm構成 azure fileストレージ使用</t>
+    <rPh sb="19" eb="21">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/var/lib/cassandra</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/var/lib/cassandra</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロードバランサー：swarm-agent-lb</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実ポート２２</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -389,16 +418,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,6 +443,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -418,17 +463,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,45 +520,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2774,31 +2815,842 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3471863" y="14768513"/>
+          <a:ext cx="0" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5348287" y="14768513"/>
+          <a:ext cx="0" cy="319088"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>14290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4938713" y="16240128"/>
+          <a:ext cx="14287" cy="471485"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2243137" y="17125951"/>
+          <a:ext cx="2033588" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3471863" y="18492788"/>
+          <a:ext cx="9525" cy="328612"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>157164</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5357814" y="18492790"/>
+          <a:ext cx="4761" cy="352423"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>366712</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="四角形吹き出し 44"/>
+        <xdr:cNvPr id="52" name="Snip Single Corner Rectangle 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6891338" y="15282863"/>
-          <a:ext cx="1485900" cy="671512"/>
+          <a:off x="3390900" y="18892838"/>
+          <a:ext cx="238125" cy="290512"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Snip Single Corner Rectangle 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="18907126"/>
+          <a:ext cx="238125" cy="290512"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>395287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Snip Single Corner Rectangle 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3471863" y="22298025"/>
+          <a:ext cx="238125" cy="290512"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>376237</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Snip Single Corner Rectangle 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153025" y="22278975"/>
+          <a:ext cx="238125" cy="290512"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1012585" cy="447943"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752851" y="22207538"/>
+          <a:ext cx="1012585" cy="447943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>File</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ストレージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>myshare1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="985654" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514976" y="22198012"/>
+          <a:ext cx="985654" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>File</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ストレージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>myshare2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2252663" y="20645438"/>
+          <a:ext cx="1095375" cy="1138237"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="四角形吹き出し 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6929437" y="20240624"/>
+          <a:ext cx="1766888" cy="552449"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -80128"/>
-            <a:gd name="adj2" fmla="val 42019"/>
+            <a:gd name="adj1" fmla="val -142563"/>
+            <a:gd name="adj2" fmla="val -259873"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="5B9BD5">
+            <a:alpha val="69804"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>66672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="四角形吹き出し 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924676" y="20250148"/>
+          <a:ext cx="1752600" cy="552449"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -140655"/>
+            <a:gd name="adj2" fmla="val 351335"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="5B9BD5">
+            <a:alpha val="69804"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ノード２用の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>File</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ストレージをマップした状態</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23814</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="四角形吹き出し 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="547688" y="20112038"/>
+          <a:ext cx="1704976" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 68282"/>
+            <a:gd name="adj2" fmla="val 1826"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -2825,7 +3677,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>負荷の状況に応じて</a:t>
+            <a:t>ロードバランサーに</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2833,16 +3685,236 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ロード先の</a:t>
+            <a:t>ポート</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Agent</a:t>
+            <a:t>22</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>が選択される</a:t>
-          </a:r>
+            <a:t>を負荷分散するルールを追加し</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エージェントノードを管理できるように構成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3624263" y="14920913"/>
+          <a:ext cx="0" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>352424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="四角形吹き出し 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953251" y="19169062"/>
+          <a:ext cx="1704976" cy="552449"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -247917"/>
+            <a:gd name="adj2" fmla="val -71080"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="5B9BD5">
+            <a:alpha val="69804"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ノード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>用の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>File</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ストレージをマップした状態</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>85723</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>366712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="四角形吹き出し 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6958011" y="19183350"/>
+          <a:ext cx="1704976" cy="552449"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -237862"/>
+            <a:gd name="adj2" fmla="val 528921"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="5B9BD5">
+            <a:alpha val="69804"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ノード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>用の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>File</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ストレージをマップした状態</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3162,18 +4234,18 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="6"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R4" t="s">
@@ -3181,32 +4253,32 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="6"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="6"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="11"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M7" t="s">
@@ -3217,107 +4289,107 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
-      <c r="Q8" s="7" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="Q8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="9"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
-      <c r="Q9" s="1" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="Q9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="3"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
-      <c r="Q10" s="1" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="Q10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="3"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="14"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="3"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="14"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="6"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="11"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3325,18 +4397,18 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="6"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R17" t="s">
@@ -3344,32 +4416,32 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="6"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q19" s="4" t="s">
+      <c r="Q19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="6"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
@@ -3380,107 +4452,107 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6"/>
-      <c r="Q21" s="7" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+      <c r="Q21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="9"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="17"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="6"/>
-      <c r="Q22" s="1" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
+      <c r="Q22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="3"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="14"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="6"/>
-      <c r="Q23" s="1" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
+      <c r="Q23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="3"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="14"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="3"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="14"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="6"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3488,18 +4560,18 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="6"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
@@ -3507,32 +4579,32 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q32" s="4" t="s">
+      <c r="Q32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="6"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="Q33" s="4" t="s">
+      <c r="Q33" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="6"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="11"/>
     </row>
     <row r="34" spans="4:26" x14ac:dyDescent="0.25">
       <c r="M34" t="s">
@@ -3543,116 +4615,128 @@
       </c>
     </row>
     <row r="35" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="6"/>
-      <c r="Q35" s="7" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="11"/>
+      <c r="Q35" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="9"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="17"/>
     </row>
     <row r="36" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="6"/>
-      <c r="Q36" s="1" t="s">
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="11"/>
+      <c r="Q36" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="3"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="14"/>
     </row>
     <row r="37" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="6"/>
-      <c r="Q37" s="1" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="11"/>
+      <c r="Q37" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="3"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="14"/>
     </row>
     <row r="38" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="3"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="14"/>
     </row>
     <row r="39" spans="4:26" x14ac:dyDescent="0.25">
-      <c r="Q39" s="4" t="s">
+      <c r="Q39" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="6"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="Q12:Z12"/>
-    <mergeCell ref="Q11:Z11"/>
-    <mergeCell ref="Q8:Z8"/>
+    <mergeCell ref="Q38:Z38"/>
+    <mergeCell ref="Q39:Z39"/>
+    <mergeCell ref="Q33:Z33"/>
+    <mergeCell ref="Q32:Z32"/>
+    <mergeCell ref="Q30:Z30"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="D36:L36"/>
+    <mergeCell ref="D37:L37"/>
+    <mergeCell ref="Q35:Z35"/>
+    <mergeCell ref="Q36:Z36"/>
+    <mergeCell ref="Q37:Z37"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="Q21:Z21"/>
+    <mergeCell ref="Q22:Z22"/>
+    <mergeCell ref="Q23:Z23"/>
+    <mergeCell ref="Q24:Z24"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="D22:L22"/>
     <mergeCell ref="Q25:Z25"/>
     <mergeCell ref="Q5:Z5"/>
     <mergeCell ref="Q3:Z3"/>
@@ -3662,24 +4746,12 @@
     <mergeCell ref="Q18:Z18"/>
     <mergeCell ref="Q19:Z19"/>
     <mergeCell ref="Q6:Z6"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="Q21:Z21"/>
-    <mergeCell ref="Q22:Z22"/>
-    <mergeCell ref="Q23:Z23"/>
-    <mergeCell ref="Q24:Z24"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="D36:L36"/>
-    <mergeCell ref="D37:L37"/>
-    <mergeCell ref="Q35:Z35"/>
-    <mergeCell ref="Q36:Z36"/>
-    <mergeCell ref="Q37:Z37"/>
-    <mergeCell ref="Q38:Z38"/>
-    <mergeCell ref="Q39:Z39"/>
-    <mergeCell ref="Q33:Z33"/>
-    <mergeCell ref="Q32:Z32"/>
-    <mergeCell ref="Q30:Z30"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="Q12:Z12"/>
+    <mergeCell ref="Q11:Z11"/>
+    <mergeCell ref="Q8:Z8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3689,10 +4761,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN99"/>
+  <dimension ref="A1:AN128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="AQ98" sqref="AQ98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="AO127" sqref="AO127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3703,16 +4775,16 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="6"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="V4" t="s">
@@ -3720,14 +4792,14 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="6"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="11"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
@@ -3738,44 +4810,44 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
@@ -3786,137 +4858,137 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
-      <c r="Q10" s="11" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="Q10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
-      <c r="Q11" s="12" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="Q11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="6"/>
-      <c r="Q12" s="12" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="Q12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="Q14" s="10" t="s">
+      <c r="Q14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -3924,28 +4996,28 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="19"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
@@ -3953,14 +5025,14 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="6"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="11"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
@@ -3971,64 +5043,64 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
     </row>
     <row r="26" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="16"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="33"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
@@ -4036,104 +5108,104 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -4141,28 +5213,28 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="19"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="36"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="6"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="11"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J41" t="s">
@@ -4170,14 +5242,14 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O42" s="4" t="s">
+      <c r="O42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="6"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="11"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
@@ -4188,44 +5260,44 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
@@ -4233,124 +5305,124 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
-      <c r="T48" s="12"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
     </row>
     <row r="49" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="16"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="33"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -4358,38 +5430,38 @@
       </c>
     </row>
     <row r="59" spans="1:27" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="19"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="36"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="6"/>
-      <c r="N60" s="4" t="s">
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="11"/>
+      <c r="N60" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="6"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="11"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="S61" t="s">
@@ -4397,14 +5469,14 @@
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V62" s="4" t="s">
+      <c r="V62" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="6"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="11"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
@@ -4415,58 +5487,58 @@
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="10"/>
-      <c r="Y64" s="10"/>
-      <c r="Z64" s="10"/>
-      <c r="AA64" s="10"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="30"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="30"/>
+      <c r="Y64" s="30"/>
+      <c r="Z64" s="30"/>
+      <c r="AA64" s="30"/>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10"/>
-      <c r="Y65" s="10"/>
-      <c r="Z65" s="10"/>
-      <c r="AA65" s="10"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="30"/>
+      <c r="U65" s="30"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="30"/>
+      <c r="X65" s="30"/>
+      <c r="Y65" s="30"/>
+      <c r="Z65" s="30"/>
+      <c r="AA65" s="30"/>
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
@@ -4474,166 +5546,166 @@
       </c>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="11"/>
-      <c r="X67" s="11"/>
-      <c r="Y67" s="11"/>
-      <c r="Z67" s="11"/>
-      <c r="AA67" s="11"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="37"/>
+      <c r="AA67" s="37"/>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12"/>
-      <c r="U68" s="12"/>
-      <c r="V68" s="12"/>
-      <c r="W68" s="12"/>
-      <c r="X68" s="12"/>
-      <c r="Y68" s="12"/>
-      <c r="Z68" s="12"/>
-      <c r="AA68" s="12"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="X68" s="29"/>
+      <c r="Y68" s="29"/>
+      <c r="Z68" s="29"/>
+      <c r="AA68" s="29"/>
     </row>
     <row r="69" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="13" t="s">
+      <c r="E69" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="13"/>
-      <c r="V69" s="13"/>
-      <c r="W69" s="13"/>
-      <c r="X69" s="13"/>
-      <c r="Y69" s="13"/>
-      <c r="Z69" s="13"/>
-      <c r="AA69" s="13"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="38"/>
+      <c r="X69" s="38"/>
+      <c r="Y69" s="38"/>
+      <c r="Z69" s="38"/>
+      <c r="AA69" s="38"/>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12"/>
-      <c r="V70" s="12"/>
-      <c r="W70" s="12"/>
-      <c r="X70" s="12"/>
-      <c r="Y70" s="12"/>
-      <c r="Z70" s="12"/>
-      <c r="AA70" s="12"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="29"/>
+      <c r="AA70" s="29"/>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-      <c r="S71" s="12"/>
-      <c r="T71" s="12"/>
-      <c r="U71" s="12"/>
-      <c r="V71" s="12"/>
-      <c r="W71" s="12"/>
-      <c r="X71" s="12"/>
-      <c r="Y71" s="12"/>
-      <c r="Z71" s="12"/>
-      <c r="AA71" s="12"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="29"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="29"/>
+      <c r="X71" s="29"/>
+      <c r="Y71" s="29"/>
+      <c r="Z71" s="29"/>
+      <c r="AA71" s="29"/>
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
-      <c r="W72" s="10"/>
-      <c r="X72" s="10"/>
-      <c r="Y72" s="10"/>
-      <c r="Z72" s="10"/>
-      <c r="AA72" s="10"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="30"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
+      <c r="Q72" s="30"/>
+      <c r="R72" s="30"/>
+      <c r="S72" s="30"/>
+      <c r="T72" s="30"/>
+      <c r="U72" s="30"/>
+      <c r="V72" s="30"/>
+      <c r="W72" s="30"/>
+      <c r="X72" s="30"/>
+      <c r="Y72" s="30"/>
+      <c r="Z72" s="30"/>
+      <c r="AA72" s="30"/>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -4641,26 +5713,26 @@
       </c>
     </row>
     <row r="78" spans="1:36" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S78" s="35" t="s">
+      <c r="S78" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="T78" s="22"/>
-      <c r="U78" s="22"/>
-      <c r="V78" s="22"/>
-      <c r="W78" s="22"/>
-      <c r="X78" s="22"/>
-      <c r="Y78" s="22"/>
-      <c r="Z78" s="22"/>
-      <c r="AA78" s="22"/>
-      <c r="AB78" s="22"/>
-      <c r="AC78" s="22"/>
-      <c r="AD78" s="22"/>
-      <c r="AE78" s="22"/>
-      <c r="AF78" s="22"/>
-      <c r="AG78" s="22"/>
-      <c r="AH78" s="22"/>
-      <c r="AI78" s="22"/>
-      <c r="AJ78" s="25"/>
+      <c r="T78" s="25"/>
+      <c r="U78" s="25"/>
+      <c r="V78" s="25"/>
+      <c r="W78" s="25"/>
+      <c r="X78" s="25"/>
+      <c r="Y78" s="25"/>
+      <c r="Z78" s="25"/>
+      <c r="AA78" s="25"/>
+      <c r="AB78" s="25"/>
+      <c r="AC78" s="25"/>
+      <c r="AD78" s="25"/>
+      <c r="AE78" s="25"/>
+      <c r="AF78" s="25"/>
+      <c r="AG78" s="25"/>
+      <c r="AH78" s="25"/>
+      <c r="AI78" s="25"/>
+      <c r="AJ78" s="26"/>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="T80" t="s">
@@ -4671,240 +5743,240 @@
       </c>
     </row>
     <row r="81" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="S81" s="21" t="s">
+      <c r="S81" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="T81" s="22"/>
-      <c r="U81" s="22"/>
-      <c r="V81" s="22"/>
-      <c r="W81" s="22"/>
-      <c r="X81" s="22"/>
-      <c r="Y81" s="22"/>
-      <c r="Z81" s="25"/>
-      <c r="AC81" s="21" t="s">
+      <c r="T81" s="25"/>
+      <c r="U81" s="25"/>
+      <c r="V81" s="25"/>
+      <c r="W81" s="25"/>
+      <c r="X81" s="25"/>
+      <c r="Y81" s="25"/>
+      <c r="Z81" s="26"/>
+      <c r="AC81" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AD81" s="22"/>
-      <c r="AE81" s="22"/>
-      <c r="AF81" s="22"/>
-      <c r="AG81" s="22"/>
-      <c r="AH81" s="22"/>
-      <c r="AI81" s="22"/>
-      <c r="AJ81" s="25"/>
+      <c r="AD81" s="25"/>
+      <c r="AE81" s="25"/>
+      <c r="AF81" s="25"/>
+      <c r="AG81" s="25"/>
+      <c r="AH81" s="25"/>
+      <c r="AI81" s="25"/>
+      <c r="AJ81" s="26"/>
     </row>
     <row r="82" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="S82" s="23"/>
-      <c r="T82" s="23"/>
-      <c r="U82" s="23"/>
-      <c r="V82" s="23"/>
-      <c r="W82" s="23"/>
-      <c r="X82" s="23"/>
-      <c r="Y82" s="23"/>
-      <c r="Z82" s="23"/>
-      <c r="AA82" s="23"/>
-      <c r="AB82" s="23"/>
-      <c r="AC82" s="23"/>
-      <c r="AD82" s="23"/>
-      <c r="AE82" s="23"/>
-      <c r="AF82" s="23"/>
-      <c r="AG82" s="23"/>
-      <c r="AH82" s="23"/>
-      <c r="AI82" s="23"/>
-      <c r="AJ82" s="23"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5"/>
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="5"/>
+      <c r="AJ82" s="5"/>
     </row>
     <row r="83" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="S83" s="23"/>
-      <c r="T83" s="23" t="s">
+      <c r="S83" s="5"/>
+      <c r="T83" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="U83" s="23"/>
-      <c r="V83" s="23"/>
-      <c r="W83" s="23"/>
-      <c r="X83" s="23"/>
-      <c r="Y83" s="23"/>
-      <c r="Z83" s="23"/>
-      <c r="AA83" s="23"/>
-      <c r="AB83" s="23"/>
-      <c r="AC83" s="23"/>
-      <c r="AD83" s="23" t="s">
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AE83" s="23"/>
-      <c r="AF83" s="23"/>
-      <c r="AG83" s="23"/>
-      <c r="AH83" s="23"/>
-      <c r="AI83" s="23"/>
-      <c r="AJ83" s="23"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5"/>
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="5"/>
     </row>
     <row r="84" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="S84" s="21" t="s">
+      <c r="S84" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="22"/>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="25"/>
-      <c r="AA84" s="23"/>
-      <c r="AB84" s="23"/>
-      <c r="AC84" s="21" t="s">
+      <c r="T84" s="25"/>
+      <c r="U84" s="25"/>
+      <c r="V84" s="25"/>
+      <c r="W84" s="25"/>
+      <c r="X84" s="25"/>
+      <c r="Y84" s="25"/>
+      <c r="Z84" s="26"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AD84" s="22"/>
-      <c r="AE84" s="22"/>
-      <c r="AF84" s="22"/>
-      <c r="AG84" s="22"/>
-      <c r="AH84" s="22"/>
-      <c r="AI84" s="22"/>
-      <c r="AJ84" s="25"/>
+      <c r="AD84" s="25"/>
+      <c r="AE84" s="25"/>
+      <c r="AF84" s="25"/>
+      <c r="AG84" s="25"/>
+      <c r="AH84" s="25"/>
+      <c r="AI84" s="25"/>
+      <c r="AJ84" s="26"/>
     </row>
     <row r="85" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="S85" s="21" t="s">
+      <c r="S85" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="T85" s="22"/>
-      <c r="U85" s="22"/>
-      <c r="V85" s="22"/>
-      <c r="W85" s="22"/>
-      <c r="X85" s="22"/>
-      <c r="Y85" s="22"/>
-      <c r="Z85" s="25"/>
-      <c r="AA85" s="23"/>
-      <c r="AB85" s="23"/>
-      <c r="AC85" s="21" t="s">
+      <c r="T85" s="25"/>
+      <c r="U85" s="25"/>
+      <c r="V85" s="25"/>
+      <c r="W85" s="25"/>
+      <c r="X85" s="25"/>
+      <c r="Y85" s="25"/>
+      <c r="Z85" s="26"/>
+      <c r="AA85" s="5"/>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AD85" s="22"/>
-      <c r="AE85" s="22"/>
-      <c r="AF85" s="22"/>
-      <c r="AG85" s="22"/>
-      <c r="AH85" s="22"/>
-      <c r="AI85" s="22"/>
-      <c r="AJ85" s="25"/>
+      <c r="AD85" s="25"/>
+      <c r="AE85" s="25"/>
+      <c r="AF85" s="25"/>
+      <c r="AG85" s="25"/>
+      <c r="AH85" s="25"/>
+      <c r="AI85" s="25"/>
+      <c r="AJ85" s="26"/>
     </row>
     <row r="86" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="S86" s="24" t="s">
+      <c r="S86" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="T86" s="22"/>
-      <c r="U86" s="22"/>
-      <c r="V86" s="22"/>
-      <c r="W86" s="22"/>
-      <c r="X86" s="22"/>
-      <c r="Y86" s="22"/>
-      <c r="Z86" s="25"/>
-      <c r="AA86" s="26"/>
-      <c r="AB86" s="26"/>
-      <c r="AC86" s="24" t="s">
+      <c r="T86" s="25"/>
+      <c r="U86" s="25"/>
+      <c r="V86" s="25"/>
+      <c r="W86" s="25"/>
+      <c r="X86" s="25"/>
+      <c r="Y86" s="25"/>
+      <c r="Z86" s="26"/>
+      <c r="AA86" s="6"/>
+      <c r="AB86" s="6"/>
+      <c r="AC86" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AD86" s="22"/>
-      <c r="AE86" s="22"/>
-      <c r="AF86" s="22"/>
-      <c r="AG86" s="22"/>
-      <c r="AH86" s="22"/>
-      <c r="AI86" s="22"/>
-      <c r="AJ86" s="25"/>
-      <c r="AK86" s="20"/>
-      <c r="AL86" s="20"/>
-      <c r="AM86" s="20"/>
-      <c r="AN86" s="20"/>
+      <c r="AD86" s="25"/>
+      <c r="AE86" s="25"/>
+      <c r="AF86" s="25"/>
+      <c r="AG86" s="25"/>
+      <c r="AH86" s="25"/>
+      <c r="AI86" s="25"/>
+      <c r="AJ86" s="26"/>
+      <c r="AK86" s="4"/>
+      <c r="AL86" s="4"/>
+      <c r="AM86" s="4"/>
+      <c r="AN86" s="4"/>
     </row>
     <row r="87" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="S87" s="27" t="s">
+      <c r="S87" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="T87" s="28"/>
-      <c r="U87" s="28"/>
-      <c r="V87" s="28"/>
-      <c r="W87" s="28"/>
-      <c r="X87" s="28"/>
-      <c r="Y87" s="28"/>
-      <c r="Z87" s="29"/>
-      <c r="AA87" s="26"/>
-      <c r="AB87" s="26"/>
-      <c r="AC87" s="27" t="s">
+      <c r="T87" s="19"/>
+      <c r="U87" s="19"/>
+      <c r="V87" s="19"/>
+      <c r="W87" s="19"/>
+      <c r="X87" s="19"/>
+      <c r="Y87" s="19"/>
+      <c r="Z87" s="20"/>
+      <c r="AA87" s="6"/>
+      <c r="AB87" s="6"/>
+      <c r="AC87" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AD87" s="28"/>
-      <c r="AE87" s="28"/>
-      <c r="AF87" s="28"/>
-      <c r="AG87" s="28"/>
-      <c r="AH87" s="28"/>
-      <c r="AI87" s="28"/>
-      <c r="AJ87" s="29"/>
-      <c r="AK87" s="20"/>
-      <c r="AL87" s="20"/>
-      <c r="AM87" s="20"/>
-      <c r="AN87" s="20"/>
+      <c r="AD87" s="19"/>
+      <c r="AE87" s="19"/>
+      <c r="AF87" s="19"/>
+      <c r="AG87" s="19"/>
+      <c r="AH87" s="19"/>
+      <c r="AI87" s="19"/>
+      <c r="AJ87" s="20"/>
+      <c r="AK87" s="4"/>
+      <c r="AL87" s="4"/>
+      <c r="AM87" s="4"/>
+      <c r="AN87" s="4"/>
     </row>
     <row r="88" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="S88" s="27" t="s">
+      <c r="S88" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="T88" s="28"/>
-      <c r="U88" s="28"/>
-      <c r="V88" s="28"/>
-      <c r="W88" s="28"/>
-      <c r="X88" s="28"/>
-      <c r="Y88" s="28"/>
-      <c r="Z88" s="28"/>
-      <c r="AA88" s="28"/>
-      <c r="AB88" s="28"/>
-      <c r="AC88" s="28"/>
-      <c r="AD88" s="28"/>
-      <c r="AE88" s="28"/>
-      <c r="AF88" s="28"/>
-      <c r="AG88" s="28"/>
-      <c r="AH88" s="28"/>
-      <c r="AI88" s="28"/>
-      <c r="AJ88" s="29"/>
+      <c r="T88" s="19"/>
+      <c r="U88" s="19"/>
+      <c r="V88" s="19"/>
+      <c r="W88" s="19"/>
+      <c r="X88" s="19"/>
+      <c r="Y88" s="19"/>
+      <c r="Z88" s="19"/>
+      <c r="AA88" s="19"/>
+      <c r="AB88" s="19"/>
+      <c r="AC88" s="19"/>
+      <c r="AD88" s="19"/>
+      <c r="AE88" s="19"/>
+      <c r="AF88" s="19"/>
+      <c r="AG88" s="19"/>
+      <c r="AH88" s="19"/>
+      <c r="AI88" s="19"/>
+      <c r="AJ88" s="20"/>
     </row>
     <row r="89" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="S89" s="27" t="s">
+      <c r="S89" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="T89" s="28"/>
-      <c r="U89" s="28"/>
-      <c r="V89" s="28"/>
-      <c r="W89" s="28"/>
-      <c r="X89" s="28"/>
-      <c r="Y89" s="28"/>
-      <c r="Z89" s="28"/>
-      <c r="AA89" s="28"/>
-      <c r="AB89" s="28"/>
-      <c r="AC89" s="28"/>
-      <c r="AD89" s="28"/>
-      <c r="AE89" s="28"/>
-      <c r="AF89" s="28"/>
-      <c r="AG89" s="28"/>
-      <c r="AH89" s="28"/>
-      <c r="AI89" s="28"/>
-      <c r="AJ89" s="29"/>
+      <c r="T89" s="19"/>
+      <c r="U89" s="19"/>
+      <c r="V89" s="19"/>
+      <c r="W89" s="19"/>
+      <c r="X89" s="19"/>
+      <c r="Y89" s="19"/>
+      <c r="Z89" s="19"/>
+      <c r="AA89" s="19"/>
+      <c r="AB89" s="19"/>
+      <c r="AC89" s="19"/>
+      <c r="AD89" s="19"/>
+      <c r="AE89" s="19"/>
+      <c r="AF89" s="19"/>
+      <c r="AG89" s="19"/>
+      <c r="AH89" s="19"/>
+      <c r="AI89" s="19"/>
+      <c r="AJ89" s="20"/>
     </row>
     <row r="90" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="S90" s="27" t="s">
+      <c r="S90" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="T90" s="28"/>
-      <c r="U90" s="28"/>
-      <c r="V90" s="28"/>
-      <c r="W90" s="28"/>
-      <c r="X90" s="28"/>
-      <c r="Y90" s="28"/>
-      <c r="Z90" s="28"/>
-      <c r="AA90" s="28"/>
-      <c r="AB90" s="28"/>
-      <c r="AC90" s="28"/>
-      <c r="AD90" s="28"/>
-      <c r="AE90" s="28"/>
-      <c r="AF90" s="28"/>
-      <c r="AG90" s="28"/>
-      <c r="AH90" s="28"/>
-      <c r="AI90" s="28"/>
-      <c r="AJ90" s="29"/>
+      <c r="T90" s="19"/>
+      <c r="U90" s="19"/>
+      <c r="V90" s="19"/>
+      <c r="W90" s="19"/>
+      <c r="X90" s="19"/>
+      <c r="Y90" s="19"/>
+      <c r="Z90" s="19"/>
+      <c r="AA90" s="19"/>
+      <c r="AB90" s="19"/>
+      <c r="AC90" s="19"/>
+      <c r="AD90" s="19"/>
+      <c r="AE90" s="19"/>
+      <c r="AF90" s="19"/>
+      <c r="AG90" s="19"/>
+      <c r="AH90" s="19"/>
+      <c r="AI90" s="19"/>
+      <c r="AJ90" s="20"/>
     </row>
     <row r="93" spans="4:40" x14ac:dyDescent="0.25">
       <c r="AB93" t="s">
@@ -4912,185 +5984,701 @@
       </c>
     </row>
     <row r="94" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="S94" s="33" t="s">
+      <c r="S94" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X94" s="21" t="s">
+      <c r="X94" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="Y94" s="22"/>
-      <c r="Z94" s="22"/>
-      <c r="AA94" s="22"/>
-      <c r="AB94" s="22"/>
-      <c r="AC94" s="22"/>
-      <c r="AD94" s="22"/>
-      <c r="AE94" s="22"/>
-      <c r="AF94" s="22"/>
-      <c r="AG94" s="25"/>
+      <c r="Y94" s="25"/>
+      <c r="Z94" s="25"/>
+      <c r="AA94" s="25"/>
+      <c r="AB94" s="25"/>
+      <c r="AC94" s="25"/>
+      <c r="AD94" s="25"/>
+      <c r="AE94" s="25"/>
+      <c r="AF94" s="25"/>
+      <c r="AG94" s="26"/>
     </row>
     <row r="95" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="6"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="11"/>
       <c r="M95" t="s">
         <v>49</v>
       </c>
-      <c r="S95" s="34" t="s">
+      <c r="S95" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="X95" s="27" t="s">
+      <c r="X95" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Y95" s="28"/>
-      <c r="Z95" s="28"/>
-      <c r="AA95" s="28"/>
-      <c r="AB95" s="28"/>
-      <c r="AC95" s="28"/>
-      <c r="AD95" s="28"/>
-      <c r="AE95" s="28"/>
-      <c r="AF95" s="28"/>
-      <c r="AG95" s="29"/>
+      <c r="Y95" s="19"/>
+      <c r="Z95" s="19"/>
+      <c r="AA95" s="19"/>
+      <c r="AB95" s="19"/>
+      <c r="AC95" s="19"/>
+      <c r="AD95" s="19"/>
+      <c r="AE95" s="19"/>
+      <c r="AF95" s="19"/>
+      <c r="AG95" s="20"/>
     </row>
     <row r="96" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="6"/>
-      <c r="S96" s="33" t="s">
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="11"/>
+      <c r="S96" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X96" s="30" t="s">
+      <c r="X96" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="Y96" s="31"/>
-      <c r="Z96" s="31"/>
-      <c r="AA96" s="31"/>
-      <c r="AB96" s="31"/>
-      <c r="AC96" s="31"/>
-      <c r="AD96" s="31"/>
-      <c r="AE96" s="31"/>
-      <c r="AF96" s="31"/>
-      <c r="AG96" s="32"/>
-    </row>
-    <row r="97" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D97" s="4" t="s">
+      <c r="Y96" s="22"/>
+      <c r="Z96" s="22"/>
+      <c r="AA96" s="22"/>
+      <c r="AB96" s="22"/>
+      <c r="AC96" s="22"/>
+      <c r="AD96" s="22"/>
+      <c r="AE96" s="22"/>
+      <c r="AF96" s="22"/>
+      <c r="AG96" s="23"/>
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="D97" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="6"/>
-    </row>
-    <row r="98" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D98" s="4" t="s">
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="11"/>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="D98" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="6"/>
-      <c r="S98" s="4" t="s">
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="11"/>
+      <c r="S98" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5"/>
-      <c r="V98" s="5"/>
-      <c r="W98" s="5"/>
-      <c r="X98" s="5"/>
-      <c r="Y98" s="5"/>
-      <c r="Z98" s="5"/>
-      <c r="AA98" s="5"/>
-      <c r="AB98" s="5"/>
-      <c r="AC98" s="5"/>
-      <c r="AD98" s="5"/>
-      <c r="AE98" s="5"/>
-      <c r="AF98" s="5"/>
-      <c r="AG98" s="5"/>
-      <c r="AH98" s="5"/>
-      <c r="AI98" s="5"/>
-      <c r="AJ98" s="6"/>
-    </row>
-    <row r="99" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="S99" s="4" t="s">
+      <c r="T98" s="10"/>
+      <c r="U98" s="10"/>
+      <c r="V98" s="10"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="10"/>
+      <c r="Z98" s="10"/>
+      <c r="AA98" s="10"/>
+      <c r="AB98" s="10"/>
+      <c r="AC98" s="10"/>
+      <c r="AD98" s="10"/>
+      <c r="AE98" s="10"/>
+      <c r="AF98" s="10"/>
+      <c r="AG98" s="10"/>
+      <c r="AH98" s="10"/>
+      <c r="AI98" s="10"/>
+      <c r="AJ98" s="11"/>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="S99" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="T99" s="5"/>
-      <c r="U99" s="5"/>
-      <c r="V99" s="5"/>
-      <c r="W99" s="5"/>
-      <c r="X99" s="5"/>
-      <c r="Y99" s="5"/>
-      <c r="Z99" s="5"/>
-      <c r="AA99" s="5"/>
-      <c r="AB99" s="5"/>
-      <c r="AC99" s="5"/>
-      <c r="AD99" s="5"/>
-      <c r="AE99" s="5"/>
-      <c r="AF99" s="5"/>
-      <c r="AG99" s="5"/>
-      <c r="AH99" s="5"/>
-      <c r="AI99" s="5"/>
-      <c r="AJ99" s="6"/>
+      <c r="T99" s="10"/>
+      <c r="U99" s="10"/>
+      <c r="V99" s="10"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="10"/>
+      <c r="Y99" s="10"/>
+      <c r="Z99" s="10"/>
+      <c r="AA99" s="10"/>
+      <c r="AB99" s="10"/>
+      <c r="AC99" s="10"/>
+      <c r="AD99" s="10"/>
+      <c r="AE99" s="10"/>
+      <c r="AF99" s="10"/>
+      <c r="AG99" s="10"/>
+      <c r="AH99" s="10"/>
+      <c r="AI99" s="10"/>
+      <c r="AJ99" s="11"/>
+    </row>
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="S104" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="T104" s="25"/>
+      <c r="U104" s="25"/>
+      <c r="V104" s="25"/>
+      <c r="W104" s="25"/>
+      <c r="X104" s="25"/>
+      <c r="Y104" s="25"/>
+      <c r="Z104" s="25"/>
+      <c r="AA104" s="25"/>
+      <c r="AB104" s="25"/>
+      <c r="AC104" s="25"/>
+      <c r="AD104" s="25"/>
+      <c r="AE104" s="25"/>
+      <c r="AF104" s="25"/>
+      <c r="AG104" s="25"/>
+      <c r="AH104" s="25"/>
+      <c r="AI104" s="25"/>
+      <c r="AJ104" s="26"/>
+    </row>
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T106" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD106" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:36" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S107" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="T107" s="35"/>
+      <c r="U107" s="35"/>
+      <c r="V107" s="35"/>
+      <c r="W107" s="35"/>
+      <c r="X107" s="35"/>
+      <c r="Y107" s="35"/>
+      <c r="Z107" s="36"/>
+      <c r="AC107" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD107" s="35"/>
+      <c r="AE107" s="35"/>
+      <c r="AF107" s="35"/>
+      <c r="AG107" s="35"/>
+      <c r="AH107" s="35"/>
+      <c r="AI107" s="35"/>
+      <c r="AJ107" s="36"/>
+    </row>
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="S108" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="T108" s="25"/>
+      <c r="U108" s="25"/>
+      <c r="V108" s="25"/>
+      <c r="W108" s="25"/>
+      <c r="X108" s="25"/>
+      <c r="Y108" s="25"/>
+      <c r="Z108" s="26"/>
+      <c r="AC108" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD108" s="25"/>
+      <c r="AE108" s="25"/>
+      <c r="AF108" s="25"/>
+      <c r="AG108" s="25"/>
+      <c r="AH108" s="25"/>
+      <c r="AI108" s="25"/>
+      <c r="AJ108" s="26"/>
+    </row>
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5"/>
+      <c r="W109" s="5"/>
+      <c r="X109" s="5"/>
+      <c r="Y109" s="5"/>
+      <c r="Z109" s="5"/>
+      <c r="AA109" s="5"/>
+      <c r="AB109" s="5"/>
+      <c r="AC109" s="5"/>
+      <c r="AD109" s="5"/>
+      <c r="AE109" s="5"/>
+      <c r="AF109" s="5"/>
+      <c r="AG109" s="5"/>
+      <c r="AH109" s="5"/>
+      <c r="AI109" s="5"/>
+      <c r="AJ109" s="5"/>
+    </row>
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="S110" s="5"/>
+      <c r="T110" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U110" s="5"/>
+      <c r="V110" s="5"/>
+      <c r="W110" s="5"/>
+      <c r="X110" s="5"/>
+      <c r="Y110" s="5"/>
+      <c r="Z110" s="5"/>
+      <c r="AA110" s="5"/>
+      <c r="AB110" s="5"/>
+      <c r="AC110" s="5"/>
+      <c r="AD110" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE110" s="5"/>
+      <c r="AF110" s="5"/>
+      <c r="AG110" s="5"/>
+      <c r="AH110" s="5"/>
+      <c r="AI110" s="5"/>
+      <c r="AJ110" s="5"/>
+    </row>
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="S111" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="T111" s="25"/>
+      <c r="U111" s="25"/>
+      <c r="V111" s="25"/>
+      <c r="W111" s="25"/>
+      <c r="X111" s="25"/>
+      <c r="Y111" s="25"/>
+      <c r="Z111" s="26"/>
+      <c r="AA111" s="5"/>
+      <c r="AB111" s="5"/>
+      <c r="AC111" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD111" s="25"/>
+      <c r="AE111" s="25"/>
+      <c r="AF111" s="25"/>
+      <c r="AG111" s="25"/>
+      <c r="AH111" s="25"/>
+      <c r="AI111" s="25"/>
+      <c r="AJ111" s="26"/>
+    </row>
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="S112" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="T112" s="25"/>
+      <c r="U112" s="25"/>
+      <c r="V112" s="25"/>
+      <c r="W112" s="25"/>
+      <c r="X112" s="25"/>
+      <c r="Y112" s="25"/>
+      <c r="Z112" s="26"/>
+      <c r="AA112" s="5"/>
+      <c r="AB112" s="5"/>
+      <c r="AC112" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD112" s="25"/>
+      <c r="AE112" s="25"/>
+      <c r="AF112" s="25"/>
+      <c r="AG112" s="25"/>
+      <c r="AH112" s="25"/>
+      <c r="AI112" s="25"/>
+      <c r="AJ112" s="26"/>
+    </row>
+    <row r="113" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="S113" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="T113" s="25"/>
+      <c r="U113" s="25"/>
+      <c r="V113" s="25"/>
+      <c r="W113" s="25"/>
+      <c r="X113" s="25"/>
+      <c r="Y113" s="25"/>
+      <c r="Z113" s="26"/>
+      <c r="AA113" s="6"/>
+      <c r="AB113" s="6"/>
+      <c r="AC113" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD113" s="25"/>
+      <c r="AE113" s="25"/>
+      <c r="AF113" s="25"/>
+      <c r="AG113" s="25"/>
+      <c r="AH113" s="25"/>
+      <c r="AI113" s="25"/>
+      <c r="AJ113" s="26"/>
+      <c r="AK113" s="4"/>
+      <c r="AL113" s="4"/>
+      <c r="AM113" s="4"/>
+      <c r="AN113" s="4"/>
+    </row>
+    <row r="114" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="S114" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="T114" s="19"/>
+      <c r="U114" s="19"/>
+      <c r="V114" s="19"/>
+      <c r="W114" s="19"/>
+      <c r="X114" s="19"/>
+      <c r="Y114" s="19"/>
+      <c r="Z114" s="20"/>
+      <c r="AA114" s="6"/>
+      <c r="AB114" s="6"/>
+      <c r="AC114" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD114" s="19"/>
+      <c r="AE114" s="19"/>
+      <c r="AF114" s="19"/>
+      <c r="AG114" s="19"/>
+      <c r="AH114" s="19"/>
+      <c r="AI114" s="19"/>
+      <c r="AJ114" s="20"/>
+      <c r="AK114" s="4"/>
+      <c r="AL114" s="4"/>
+      <c r="AM114" s="4"/>
+      <c r="AN114" s="4"/>
+    </row>
+    <row r="115" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="S115" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="T115" s="19"/>
+      <c r="U115" s="19"/>
+      <c r="V115" s="19"/>
+      <c r="W115" s="19"/>
+      <c r="X115" s="19"/>
+      <c r="Y115" s="19"/>
+      <c r="Z115" s="19"/>
+      <c r="AA115" s="19"/>
+      <c r="AB115" s="19"/>
+      <c r="AC115" s="19"/>
+      <c r="AD115" s="19"/>
+      <c r="AE115" s="19"/>
+      <c r="AF115" s="19"/>
+      <c r="AG115" s="19"/>
+      <c r="AH115" s="19"/>
+      <c r="AI115" s="19"/>
+      <c r="AJ115" s="20"/>
+    </row>
+    <row r="116" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="O116" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S116" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="T116" s="19"/>
+      <c r="U116" s="19"/>
+      <c r="V116" s="19"/>
+      <c r="W116" s="19"/>
+      <c r="X116" s="19"/>
+      <c r="Y116" s="19"/>
+      <c r="Z116" s="19"/>
+      <c r="AA116" s="19"/>
+      <c r="AB116" s="19"/>
+      <c r="AC116" s="19"/>
+      <c r="AD116" s="19"/>
+      <c r="AE116" s="19"/>
+      <c r="AF116" s="19"/>
+      <c r="AG116" s="19"/>
+      <c r="AH116" s="19"/>
+      <c r="AI116" s="19"/>
+      <c r="AJ116" s="20"/>
+    </row>
+    <row r="117" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="S117" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="T117" s="19"/>
+      <c r="U117" s="19"/>
+      <c r="V117" s="19"/>
+      <c r="W117" s="19"/>
+      <c r="X117" s="19"/>
+      <c r="Y117" s="19"/>
+      <c r="Z117" s="19"/>
+      <c r="AA117" s="19"/>
+      <c r="AB117" s="19"/>
+      <c r="AC117" s="19"/>
+      <c r="AD117" s="19"/>
+      <c r="AE117" s="19"/>
+      <c r="AF117" s="19"/>
+      <c r="AG117" s="19"/>
+      <c r="AH117" s="19"/>
+      <c r="AI117" s="19"/>
+      <c r="AJ117" s="20"/>
+    </row>
+    <row r="120" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AB120" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="S121" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X121" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y121" s="25"/>
+      <c r="Z121" s="25"/>
+      <c r="AA121" s="25"/>
+      <c r="AB121" s="25"/>
+      <c r="AC121" s="25"/>
+      <c r="AD121" s="25"/>
+      <c r="AE121" s="25"/>
+      <c r="AF121" s="25"/>
+      <c r="AG121" s="26"/>
+    </row>
+    <row r="122" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="D122" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
+      <c r="L122" s="11"/>
+      <c r="M122" t="s">
+        <v>49</v>
+      </c>
+      <c r="S122" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X122" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y122" s="19"/>
+      <c r="Z122" s="19"/>
+      <c r="AA122" s="19"/>
+      <c r="AB122" s="19"/>
+      <c r="AC122" s="19"/>
+      <c r="AD122" s="19"/>
+      <c r="AE122" s="19"/>
+      <c r="AF122" s="19"/>
+      <c r="AG122" s="20"/>
+    </row>
+    <row r="123" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="D123" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="11"/>
+      <c r="S123" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="X123" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y123" s="22"/>
+      <c r="Z123" s="22"/>
+      <c r="AA123" s="22"/>
+      <c r="AB123" s="22"/>
+      <c r="AC123" s="22"/>
+      <c r="AD123" s="22"/>
+      <c r="AE123" s="22"/>
+      <c r="AF123" s="22"/>
+      <c r="AG123" s="23"/>
+    </row>
+    <row r="124" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="D124" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="11"/>
+    </row>
+    <row r="125" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="D125" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="11"/>
+      <c r="S125" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T125" s="10"/>
+      <c r="U125" s="10"/>
+      <c r="V125" s="10"/>
+      <c r="W125" s="10"/>
+      <c r="X125" s="10"/>
+      <c r="Y125" s="10"/>
+      <c r="Z125" s="10"/>
+      <c r="AA125" s="10"/>
+      <c r="AB125" s="10"/>
+      <c r="AC125" s="10"/>
+      <c r="AD125" s="10"/>
+      <c r="AE125" s="10"/>
+      <c r="AF125" s="10"/>
+      <c r="AG125" s="10"/>
+      <c r="AH125" s="10"/>
+      <c r="AI125" s="10"/>
+      <c r="AJ125" s="11"/>
+    </row>
+    <row r="126" spans="4:40" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D126" s="39"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="39"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="39"/>
+      <c r="I126" s="39"/>
+      <c r="J126" s="39"/>
+      <c r="K126" s="39"/>
+      <c r="L126" s="39"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2"/>
+      <c r="V126" s="2"/>
+      <c r="W126" s="2"/>
+      <c r="X126" s="2"/>
+      <c r="Y126" s="2"/>
+      <c r="Z126" s="2"/>
+      <c r="AA126" s="2"/>
+      <c r="AB126" s="2"/>
+      <c r="AC126" s="2"/>
+      <c r="AD126" s="2"/>
+      <c r="AE126" s="2"/>
+      <c r="AF126" s="2"/>
+      <c r="AG126" s="2"/>
+      <c r="AH126" s="2"/>
+      <c r="AI126" s="2"/>
+      <c r="AJ126" s="3"/>
+    </row>
+    <row r="127" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="D127" s="39"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="39"/>
+      <c r="G127" s="39"/>
+      <c r="H127" s="39"/>
+      <c r="I127" s="39"/>
+      <c r="J127" s="39"/>
+      <c r="K127" s="39"/>
+      <c r="L127" s="39"/>
+      <c r="S127" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="T127" s="13"/>
+      <c r="U127" s="13"/>
+      <c r="V127" s="13"/>
+      <c r="W127" s="13"/>
+      <c r="X127" s="13"/>
+      <c r="Y127" s="13"/>
+      <c r="Z127" s="13"/>
+      <c r="AA127" s="13"/>
+      <c r="AB127" s="13"/>
+      <c r="AC127" s="13"/>
+      <c r="AD127" s="13"/>
+      <c r="AE127" s="13"/>
+      <c r="AF127" s="13"/>
+      <c r="AG127" s="13"/>
+      <c r="AH127" s="13"/>
+      <c r="AI127" s="13"/>
+      <c r="AJ127" s="14"/>
+    </row>
+    <row r="128" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="S128" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T128" s="10"/>
+      <c r="U128" s="10"/>
+      <c r="V128" s="10"/>
+      <c r="W128" s="10"/>
+      <c r="X128" s="10"/>
+      <c r="Y128" s="10"/>
+      <c r="Z128" s="10"/>
+      <c r="AA128" s="10"/>
+      <c r="AB128" s="10"/>
+      <c r="AC128" s="10"/>
+      <c r="AD128" s="10"/>
+      <c r="AE128" s="10"/>
+      <c r="AF128" s="10"/>
+      <c r="AG128" s="10"/>
+      <c r="AH128" s="10"/>
+      <c r="AI128" s="10"/>
+      <c r="AJ128" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="S99:AJ99"/>
-    <mergeCell ref="S98:AJ98"/>
-    <mergeCell ref="X95:AG95"/>
-    <mergeCell ref="D96:L96"/>
-    <mergeCell ref="D97:L97"/>
-    <mergeCell ref="D98:L98"/>
-    <mergeCell ref="D95:L95"/>
-    <mergeCell ref="S90:AJ90"/>
-    <mergeCell ref="X96:AG96"/>
-    <mergeCell ref="X94:AG94"/>
-    <mergeCell ref="S88:AJ88"/>
-    <mergeCell ref="S89:AJ89"/>
-    <mergeCell ref="S87:Z87"/>
-    <mergeCell ref="AC87:AJ87"/>
-    <mergeCell ref="S81:Z81"/>
-    <mergeCell ref="S86:Z86"/>
-    <mergeCell ref="AC86:AJ86"/>
-    <mergeCell ref="AC81:AJ81"/>
-    <mergeCell ref="S78:AJ78"/>
-    <mergeCell ref="S84:Z84"/>
-    <mergeCell ref="S85:Z85"/>
-    <mergeCell ref="AC84:AJ84"/>
-    <mergeCell ref="AC85:AJ85"/>
-    <mergeCell ref="Q11:AF11"/>
-    <mergeCell ref="Q12:AF12"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="E33:T33"/>
-    <mergeCell ref="E26:T26"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="E27:T27"/>
-    <mergeCell ref="E29:T29"/>
-    <mergeCell ref="E30:T30"/>
-    <mergeCell ref="E31:T31"/>
+  <mergeCells count="95">
+    <mergeCell ref="S128:AJ128"/>
+    <mergeCell ref="S107:Z107"/>
+    <mergeCell ref="AC107:AJ107"/>
+    <mergeCell ref="S127:AJ127"/>
+    <mergeCell ref="D123:L123"/>
+    <mergeCell ref="X123:AG123"/>
+    <mergeCell ref="D124:L124"/>
+    <mergeCell ref="D125:L125"/>
+    <mergeCell ref="S125:AJ125"/>
+    <mergeCell ref="S115:AJ115"/>
+    <mergeCell ref="S116:AJ116"/>
+    <mergeCell ref="S117:AJ117"/>
+    <mergeCell ref="X121:AG121"/>
+    <mergeCell ref="D122:L122"/>
+    <mergeCell ref="X122:AG122"/>
+    <mergeCell ref="S112:Z112"/>
+    <mergeCell ref="AC112:AJ112"/>
+    <mergeCell ref="S113:Z113"/>
+    <mergeCell ref="AC113:AJ113"/>
+    <mergeCell ref="S114:Z114"/>
+    <mergeCell ref="AC114:AJ114"/>
+    <mergeCell ref="S104:AJ104"/>
+    <mergeCell ref="S108:Z108"/>
+    <mergeCell ref="AC108:AJ108"/>
+    <mergeCell ref="S111:Z111"/>
+    <mergeCell ref="AC111:AJ111"/>
+    <mergeCell ref="E69:AA69"/>
+    <mergeCell ref="E70:AA70"/>
+    <mergeCell ref="E71:AA71"/>
+    <mergeCell ref="E72:AA72"/>
+    <mergeCell ref="E52:T52"/>
+    <mergeCell ref="N60:U60"/>
+    <mergeCell ref="E64:AA64"/>
+    <mergeCell ref="E65:AA65"/>
+    <mergeCell ref="E67:AA67"/>
+    <mergeCell ref="E68:AA68"/>
+    <mergeCell ref="E49:T49"/>
+    <mergeCell ref="E59:L59"/>
+    <mergeCell ref="E60:L60"/>
+    <mergeCell ref="V62:AA62"/>
+    <mergeCell ref="E45:T45"/>
+    <mergeCell ref="E47:T47"/>
+    <mergeCell ref="E48:T48"/>
+    <mergeCell ref="E50:T50"/>
+    <mergeCell ref="E51:T51"/>
     <mergeCell ref="E39:L39"/>
     <mergeCell ref="E40:L40"/>
     <mergeCell ref="O42:T42"/>
@@ -5107,25 +6695,40 @@
     <mergeCell ref="Q7:AF7"/>
     <mergeCell ref="Q8:AF8"/>
     <mergeCell ref="Q10:AF10"/>
-    <mergeCell ref="E49:T49"/>
-    <mergeCell ref="E59:L59"/>
-    <mergeCell ref="E60:L60"/>
-    <mergeCell ref="V62:AA62"/>
-    <mergeCell ref="E45:T45"/>
-    <mergeCell ref="E47:T47"/>
-    <mergeCell ref="E48:T48"/>
-    <mergeCell ref="E50:T50"/>
-    <mergeCell ref="E51:T51"/>
-    <mergeCell ref="E69:AA69"/>
-    <mergeCell ref="E70:AA70"/>
-    <mergeCell ref="E71:AA71"/>
-    <mergeCell ref="E72:AA72"/>
-    <mergeCell ref="E52:T52"/>
-    <mergeCell ref="N60:U60"/>
-    <mergeCell ref="E64:AA64"/>
-    <mergeCell ref="E65:AA65"/>
-    <mergeCell ref="E67:AA67"/>
-    <mergeCell ref="E68:AA68"/>
+    <mergeCell ref="Q11:AF11"/>
+    <mergeCell ref="Q12:AF12"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="E33:T33"/>
+    <mergeCell ref="E26:T26"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="E27:T27"/>
+    <mergeCell ref="E29:T29"/>
+    <mergeCell ref="E30:T30"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="S78:AJ78"/>
+    <mergeCell ref="S84:Z84"/>
+    <mergeCell ref="S85:Z85"/>
+    <mergeCell ref="AC84:AJ84"/>
+    <mergeCell ref="AC85:AJ85"/>
+    <mergeCell ref="S87:Z87"/>
+    <mergeCell ref="AC87:AJ87"/>
+    <mergeCell ref="S81:Z81"/>
+    <mergeCell ref="S86:Z86"/>
+    <mergeCell ref="AC86:AJ86"/>
+    <mergeCell ref="AC81:AJ81"/>
+    <mergeCell ref="S90:AJ90"/>
+    <mergeCell ref="X96:AG96"/>
+    <mergeCell ref="X94:AG94"/>
+    <mergeCell ref="S88:AJ88"/>
+    <mergeCell ref="S89:AJ89"/>
+    <mergeCell ref="S99:AJ99"/>
+    <mergeCell ref="S98:AJ98"/>
+    <mergeCell ref="X95:AG95"/>
+    <mergeCell ref="D96:L96"/>
+    <mergeCell ref="D97:L97"/>
+    <mergeCell ref="D98:L98"/>
+    <mergeCell ref="D95:L95"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
